--- a/Test Data/FC_Gallery_Sounder_FIM_Panels.xlsx
+++ b/Test Data/FC_Gallery_Sounder_FIM_Panels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2174AB81-B3EC-4197-AC7A-BCF80AE162BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D344BA97-664F-4DCB-A329-0BB0FCCC2100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>

--- a/Test Data/FC_Gallery_Sounder_FIM_Panels.xlsx
+++ b/Test Data/FC_Gallery_Sounder_FIM_Panels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D344BA97-664F-4DCB-A329-0BB0FCCC2100}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA482F1-2236-4EE1-9567-BF676287622E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -119,7 +119,7 @@
     <t>Italy Market</t>
   </si>
   <si>
-    <t>NGC-3145/T2226/T2447</t>
+    <t>NGC-3443/T1928/T1938/T1952</t>
   </si>
 </sst>
 </file>
@@ -1186,13 +1186,13 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
   </cols>
@@ -1231,7 +1231,7 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="5"/>

--- a/Test Data/FC_Gallery_Sounder_FIM_Panels.xlsx
+++ b/Test Data/FC_Gallery_Sounder_FIM_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA482F1-2236-4EE1-9567-BF676287622E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1E3DCF-3F20-4C03-9D72-A5ED7B407A90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
+    <sheet name="Spain" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
   <si>
     <t>Wg</t>
   </si>
@@ -120,6 +121,12 @@
   </si>
   <si>
     <t>NGC-3443/T1928/T1938/T1952</t>
+  </si>
+  <si>
+    <t>NGC-3442/T1599/T1609/T1636</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
   </si>
 </sst>
 </file>
@@ -1185,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3872518B-4C2B-4709-BD58-4D530AD31597}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,4 +1293,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC367D1A-3748-4974-B758-A0838AF2CFA0}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Sounder_FIM_Panels.xlsx
+++ b/Test Data/FC_Gallery_Sounder_FIM_Panels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1E3DCF-3F20-4C03-9D72-A5ED7B407A90}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EB060D-E76B-4BC4-B9DF-597CB93091CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
+    <sheet name="Hungary" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
   <si>
     <t>Wg</t>
   </si>
@@ -127,6 +128,12 @@
   </si>
   <si>
     <t>Spain Market</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-4308/T3630/T3638/T3649</t>
   </si>
 </sst>
 </file>
@@ -1299,8 +1306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC367D1A-3748-4974-B758-A0838AF2CFA0}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1400,4 +1407,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF11A74-CA6F-47FF-BC6A-C2B2A36E2132}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/FC_Gallery_Sounder_FIM_Panels.xlsx
+++ b/Test Data/FC_Gallery_Sounder_FIM_Panels.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EB060D-E76B-4BC4-B9DF-597CB93091CA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE882C04-B2BD-4A46-8F5D-8A4708E330E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Germany" sheetId="7" r:id="rId1"/>
-    <sheet name="Belgium" sheetId="9" r:id="rId2"/>
-    <sheet name="Czech" sheetId="8" r:id="rId3"/>
-    <sheet name="Swiss" sheetId="10" r:id="rId4"/>
-    <sheet name="Portugal" sheetId="11" r:id="rId5"/>
-    <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
-    <sheet name="Italy" sheetId="13" r:id="rId7"/>
-    <sheet name="Spain" sheetId="14" r:id="rId8"/>
-    <sheet name="Hungary" sheetId="15" r:id="rId9"/>
+    <sheet name="UK" sheetId="16" r:id="rId1"/>
+    <sheet name="Germany" sheetId="7" r:id="rId2"/>
+    <sheet name="Belgium" sheetId="9" r:id="rId3"/>
+    <sheet name="Czech" sheetId="8" r:id="rId4"/>
+    <sheet name="Swiss" sheetId="10" r:id="rId5"/>
+    <sheet name="Portugal" sheetId="11" r:id="rId6"/>
+    <sheet name="Slovakia" sheetId="12" r:id="rId7"/>
+    <sheet name="Italy" sheetId="13" r:id="rId8"/>
+    <sheet name="Spain" sheetId="14" r:id="rId9"/>
+    <sheet name="Hungary" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="33">
   <si>
     <t>Wg</t>
   </si>
@@ -134,6 +135,12 @@
   </si>
   <si>
     <t>NGC-4308/T3630/T3638/T3649</t>
+  </si>
+  <si>
+    <t>UK Market</t>
+  </si>
+  <si>
+    <t>NGC-3003/T1241/1248/T1257</t>
   </si>
 </sst>
 </file>
@@ -554,6 +561,220 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E884FB84-8E8A-49E8-B9A6-207199C8D5E8}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.88671875" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF11A74-CA6F-47FF-BC6A-C2B2A36E2132}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.21875" customWidth="1"/>
+    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCA0CE43-C2A8-4DC2-8C6C-856D70AB4DD1}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -660,7 +881,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{588717BC-6E95-47F0-BE15-2ECBB6661F94}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -767,7 +988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9A572B-4ECC-4898-9438-06611BDE0241}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -874,7 +1095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB14E83C-D812-4A43-94C1-853176C89F84}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -981,7 +1202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7E217DD-09B7-48CD-B06D-10C6692ABE46}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1088,7 +1309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A275A8B0-1C2F-417C-A5E8-2845BD5B7FE1}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1195,7 +1416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3872518B-4C2B-4709-BD58-4D530AD31597}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1302,7 +1523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC367D1A-3748-4974-B758-A0838AF2CFA0}">
   <dimension ref="A1:D12"/>
   <sheetViews>
@@ -1407,111 +1628,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF11A74-CA6F-47FF-BC6A-C2B2A36E2132}">
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="22.21875" customWidth="1"/>
-    <col min="2" max="2" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C5" s="6"/>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="C2:D2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>